--- a/data/trans_orig/P2A_enfcro_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>291251</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>265998</v>
+        <v>266478</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>315903</v>
+        <v>316706</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4985970586569928</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.455365377324401</v>
+        <v>0.4561878530543799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5407994135510235</v>
+        <v>0.542173206229736</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>628</v>
@@ -765,19 +765,19 @@
         <v>647478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>618057</v>
+        <v>619112</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>673703</v>
+        <v>674792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7020004644502563</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6701019394570978</v>
+        <v>0.6712457535829337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7304341180513551</v>
+        <v>0.7316140260788557</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>923</v>
@@ -786,19 +786,19 @@
         <v>938729</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>898522</v>
+        <v>903199</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>980299</v>
+        <v>979450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6231299966859258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.596440428138467</v>
+        <v>0.5995452544674389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6507242828262707</v>
+        <v>0.6501607579873789</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>292890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268238</v>
+        <v>267435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318143</v>
+        <v>317663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5014029413430072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4592005864489765</v>
+        <v>0.4578267937702638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5446346226755988</v>
+        <v>0.5438121469456201</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -836,19 +836,19 @@
         <v>274855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248630</v>
+        <v>247541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304276</v>
+        <v>303221</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2979995355497437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2695658819486449</v>
+        <v>0.2683859739211443</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3298980605429024</v>
+        <v>0.328754246417066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>536</v>
@@ -857,19 +857,19 @@
         <v>567745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>526175</v>
+        <v>527024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>607952</v>
+        <v>603275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3768700033140742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3492757171737292</v>
+        <v>0.349839242012621</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4035595718615329</v>
+        <v>0.4004547455325611</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>500460</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>467758</v>
+        <v>466469</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>533829</v>
+        <v>533780</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4642945677701171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4339557089755829</v>
+        <v>0.4327597633890375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4952522535234568</v>
+        <v>0.4952061125231563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>611</v>
@@ -982,19 +982,19 @@
         <v>628486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>599160</v>
+        <v>598604</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>661471</v>
+        <v>660543</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5942920494419917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5665611224252189</v>
+        <v>0.5660350333885197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6254823361557617</v>
+        <v>0.6246040354324636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1110</v>
@@ -1003,19 +1003,19 @@
         <v>1128947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1081665</v>
+        <v>1079337</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1177458</v>
+        <v>1174580</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5286737073922854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5065319698210834</v>
+        <v>0.5054418870623494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5513911376174703</v>
+        <v>0.5500432858079575</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>577434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>544065</v>
+        <v>544114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>610136</v>
+        <v>611425</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.535705432229883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5047477464765432</v>
+        <v>0.5047938874768437</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.566044291024417</v>
+        <v>0.5672402366109626</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1053,19 +1053,19 @@
         <v>429052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>396067</v>
+        <v>396995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458378</v>
+        <v>458934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4057079505580083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3745176638442382</v>
+        <v>0.3753959645675365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4334388775747811</v>
+        <v>0.4339649666114804</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>973</v>
@@ -1074,19 +1074,19 @@
         <v>1006485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>957974</v>
+        <v>960852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1053767</v>
+        <v>1056095</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4713262926077146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4486088623825297</v>
+        <v>0.4499567141920425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4934680301789166</v>
+        <v>0.4945581129376506</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>470504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>437054</v>
+        <v>437749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>503522</v>
+        <v>503911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4194960152093212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3896720868557121</v>
+        <v>0.3902920692077535</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4489340905137251</v>
+        <v>0.4492811194630442</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>527</v>
@@ -1199,19 +1199,19 @@
         <v>532676</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>501119</v>
+        <v>498636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>565304</v>
+        <v>562685</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5359234364801444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5041747699094704</v>
+        <v>0.5016764060241798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5687502889866531</v>
+        <v>0.5661157169499095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>997</v>
@@ -1220,19 +1220,19 @@
         <v>1003180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>959643</v>
+        <v>960041</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1047411</v>
+        <v>1050406</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4741970181806435</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4536171938119561</v>
+        <v>0.4538055946301695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4951047165334034</v>
+        <v>0.4965204298258452</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>651090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>618072</v>
+        <v>617683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>684540</v>
+        <v>683845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5805039847906789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.551065909486275</v>
+        <v>0.5507188805369558</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.610327913144288</v>
+        <v>0.6097079307922466</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>455</v>
@@ -1270,19 +1270,19 @@
         <v>461264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428636</v>
+        <v>431255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>492821</v>
+        <v>495304</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4640765635198555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4312497110133469</v>
+        <v>0.4338842830500905</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4958252300905295</v>
+        <v>0.4983235939758202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1088</v>
@@ -1291,19 +1291,19 @@
         <v>1112354</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1068123</v>
+        <v>1065128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1155891</v>
+        <v>1155493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5258029818193565</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5048952834665962</v>
+        <v>0.5034795701741549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5463828061880436</v>
+        <v>0.5461944053698303</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>173171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151800</v>
+        <v>153878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194923</v>
+        <v>194295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3872335686120633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3394453643732503</v>
+        <v>0.3440931997061094</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4358732368847488</v>
+        <v>0.4344709979346454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -1416,19 +1416,19 @@
         <v>193962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>174465</v>
+        <v>175325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210467</v>
+        <v>212617</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5685387090302184</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5113916037399667</v>
+        <v>0.5139107423377983</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6169188023963939</v>
+        <v>0.6232213023375662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -1437,19 +1437,19 @@
         <v>367132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339870</v>
+        <v>339111</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>394836</v>
+        <v>395389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.465692519863769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4311109650999856</v>
+        <v>0.4301490803273198</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5008334491634816</v>
+        <v>0.5015352414532508</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>274029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252277</v>
+        <v>252905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295400</v>
+        <v>293322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6127664313879367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5641267631152512</v>
+        <v>0.5655290020653546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6605546356267498</v>
+        <v>0.6559068002938905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -1487,19 +1487,19 @@
         <v>147196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130691</v>
+        <v>128541</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166693</v>
+        <v>165833</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4314612909697816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3830811976036061</v>
+        <v>0.3767786976624338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4886083962600334</v>
+        <v>0.4860892576622016</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>415</v>
@@ -1508,19 +1508,19 @@
         <v>421226</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>393522</v>
+        <v>392969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>448488</v>
+        <v>449247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5343074801362311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4991665508365183</v>
+        <v>0.4984647585467493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5688890349000143</v>
+        <v>0.5698509196726802</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1435386</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1382843</v>
+        <v>1378357</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1499137</v>
+        <v>1495797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4442780510854702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4280147707443215</v>
+        <v>0.4266264301667894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4640101164093954</v>
+        <v>0.4629760928443051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1957</v>
@@ -1633,19 +1633,19 @@
         <v>2002602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1948854</v>
+        <v>1943661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2059188</v>
+        <v>2059605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6041087919675424</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5878950691382774</v>
+        <v>0.5863284918496365</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6211785090861942</v>
+        <v>0.6213045830690901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3390</v>
@@ -1654,19 +1654,19 @@
         <v>3437988</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3358007</v>
+        <v>3358714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3518246</v>
+        <v>3519215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5252206517016136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5130019194586958</v>
+        <v>0.5131098725954205</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5374816677707533</v>
+        <v>0.5376295728352939</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1795443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1731692</v>
+        <v>1735032</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1847986</v>
+        <v>1852472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5557219489145298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5359898835906047</v>
+        <v>0.5370239071556948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5719852292556785</v>
+        <v>0.5733735698332105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1277</v>
@@ -1704,19 +1704,19 @@
         <v>1312367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1255781</v>
+        <v>1255364</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1366115</v>
+        <v>1371308</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3958912080324576</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3788214909138059</v>
+        <v>0.3786954169309097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4121049308617226</v>
+        <v>0.4136715081503634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3012</v>
@@ -1725,19 +1725,19 @@
         <v>3107810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3027552</v>
+        <v>3026583</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3187791</v>
+        <v>3187084</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4747793482983864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4625183322292464</v>
+        <v>0.4623704271647062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4869980805413042</v>
+        <v>0.4868901274045797</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>541477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>507997</v>
+        <v>507702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>576411</v>
+        <v>573073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5186885443930379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.486617622672972</v>
+        <v>0.4863346143881634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.552152408956089</v>
+        <v>0.5489545937050214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>721</v>
@@ -2090,19 +2090,19 @@
         <v>784241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>754139</v>
+        <v>748919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>815588</v>
+        <v>814337</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7002603101311015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6733819834641911</v>
+        <v>0.6687208647556004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7282500041020236</v>
+        <v>0.7271330828780818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1219</v>
@@ -2111,19 +2111,19 @@
         <v>1325718</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1275808</v>
+        <v>1276548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1367493</v>
+        <v>1373201</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6126627722944054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.58959755437948</v>
+        <v>0.5899395833848408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6319684480169042</v>
+        <v>0.6346064290039507</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>502458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>467524</v>
+        <v>470862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>535938</v>
+        <v>536233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4813114556069621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4478475910439111</v>
+        <v>0.4510454062949785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.513382377327028</v>
+        <v>0.5136653856118366</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>310</v>
@@ -2161,19 +2161,19 @@
         <v>335687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304340</v>
+        <v>305591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>365789</v>
+        <v>371009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2997396898688985</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2717499958979765</v>
+        <v>0.2728669171219183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3266180165358089</v>
+        <v>0.3312791352443997</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -2182,19 +2182,19 @@
         <v>838145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>796370</v>
+        <v>790662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>888055</v>
+        <v>887315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3873372277055947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3680315519830958</v>
+        <v>0.3653935709960492</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4104024456205199</v>
+        <v>0.4100604166151594</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>549651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>517244</v>
+        <v>518550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>582301</v>
+        <v>581733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5625486527270508</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5293811401693174</v>
+        <v>0.5307177580990213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5959651038769792</v>
+        <v>0.5953834248595367</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>699</v>
@@ -2307,19 +2307,19 @@
         <v>749823</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>720330</v>
+        <v>719837</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>783038</v>
+        <v>779034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6852317363926611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6582791574576549</v>
+        <v>0.6578289986441563</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7155852491999315</v>
+        <v>0.7119263180281499</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1219</v>
@@ -2328,19 +2328,19 @@
         <v>1299474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1250401</v>
+        <v>1252313</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1348308</v>
+        <v>1342496</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6273606988195796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6036692596778725</v>
+        <v>0.6045919890972528</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6509368419709819</v>
+        <v>0.6481307369135608</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>427422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>394772</v>
+        <v>395340</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459829</v>
+        <v>458523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4374513472729492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4040348961230208</v>
+        <v>0.4046165751404633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4706188598306826</v>
+        <v>0.4692822419009786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>321</v>
@@ -2378,19 +2378,19 @@
         <v>344439</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>311224</v>
+        <v>315228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>373932</v>
+        <v>374425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3147682636073388</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2844147508000685</v>
+        <v>0.2880736819718501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3417208425423451</v>
+        <v>0.3421710013558437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>725</v>
@@ -2399,19 +2399,19 @@
         <v>771861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723027</v>
+        <v>728839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>820934</v>
+        <v>819022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3726393011804204</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3490631580290181</v>
+        <v>0.3518692630864393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3963307403221274</v>
+        <v>0.3954080109027473</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>504471</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>470702</v>
+        <v>474215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>533271</v>
+        <v>535669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5699494170613256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5317975539222398</v>
+        <v>0.5357663164208643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6024876397401272</v>
+        <v>0.6051973062362183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>545</v>
@@ -2524,19 +2524,19 @@
         <v>580569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>550445</v>
+        <v>552396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>607872</v>
+        <v>609633</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6629048328136966</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6285078319918345</v>
+        <v>0.630736427711313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6940791118894108</v>
+        <v>0.6960899453508266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1016</v>
@@ -2545,19 +2545,19 @@
         <v>1085040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1044642</v>
+        <v>1045868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1129034</v>
+        <v>1130592</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6161811494493625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5932394224735189</v>
+        <v>0.5939358562823125</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6411648853598434</v>
+        <v>0.6420494999511797</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>380644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351844</v>
+        <v>349446</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414413</v>
+        <v>410900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4300505829386743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3975123602598729</v>
+        <v>0.3948026937637817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4682024460777601</v>
+        <v>0.4642336835791357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -2595,19 +2595,19 @@
         <v>295227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>267924</v>
+        <v>266163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325351</v>
+        <v>323400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3370951671863034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.305920888110589</v>
+        <v>0.3039100546491737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3714921680081653</v>
+        <v>0.3692635722886872</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -2616,19 +2616,19 @@
         <v>675871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631877</v>
+        <v>630319</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>716269</v>
+        <v>715043</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3838188505506375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3588351146401565</v>
+        <v>0.3579505000488203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.406760577526481</v>
+        <v>0.4060641437176875</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>240004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217457</v>
+        <v>213597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264572</v>
+        <v>261673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.47712420807488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4323009934984813</v>
+        <v>0.4246264819051525</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5259648110884905</v>
+        <v>0.5202017734058739</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>246</v>
@@ -2741,19 +2741,19 @@
         <v>280059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>260272</v>
+        <v>258901</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301939</v>
+        <v>303856</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6185933318845916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5748874128139659</v>
+        <v>0.5718584622495198</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6669199464201666</v>
+        <v>0.6711552070476954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>463</v>
@@ -2762,19 +2762,19 @@
         <v>520063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>488465</v>
+        <v>490689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>552883</v>
+        <v>557527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5441370815245214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5110757639575195</v>
+        <v>0.5134034454300351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5784760300610631</v>
+        <v>0.5833346855783401</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>263019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>238451</v>
+        <v>241350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285566</v>
+        <v>289426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.52287579192512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4740351889115092</v>
+        <v>0.479798226594126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5676990065015185</v>
+        <v>0.575373518094847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>166</v>
@@ -2812,19 +2812,19 @@
         <v>172677</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150797</v>
+        <v>148880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192464</v>
+        <v>193835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3814066681154084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3330800535798334</v>
+        <v>0.3288447929523046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4251125871860346</v>
+        <v>0.4281415377504804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>410</v>
@@ -2833,19 +2833,19 @@
         <v>435695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>402875</v>
+        <v>398231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>467293</v>
+        <v>465069</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4558629184754786</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4215239699389369</v>
+        <v>0.4166653144216598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4889242360424805</v>
+        <v>0.4865965545699648</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1835603</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1772097</v>
+        <v>1773203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1891086</v>
+        <v>1901561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5384349883706869</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5198070103379265</v>
+        <v>0.5201312401200725</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5547097595599201</v>
+        <v>0.5577824401390244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2211</v>
@@ -2958,19 +2958,19 @@
         <v>2394693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2336046</v>
+        <v>2335313</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2447511</v>
+        <v>2452639</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6759472210846081</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6593929470785331</v>
+        <v>0.6591862060677661</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6908560641185214</v>
+        <v>0.6923035478172745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3917</v>
@@ -2979,19 +2979,19 @@
         <v>4230296</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4147212</v>
+        <v>4151518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4317368</v>
+        <v>4322038</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6085122180646997</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5965609486834149</v>
+        <v>0.5971803365075325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6210372144496245</v>
+        <v>0.6217090222002163</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1573542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1518059</v>
+        <v>1507584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1637048</v>
+        <v>1635942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.461565011629313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4452902404400798</v>
+        <v>0.4422175598609755</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4801929896620734</v>
+        <v>0.4798687598799274</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1073</v>
@@ -3029,19 +3029,19 @@
         <v>1148029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1095211</v>
+        <v>1090083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1206676</v>
+        <v>1207409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3240527789153919</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3091439358814785</v>
+        <v>0.3076964521827254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3406070529214669</v>
+        <v>0.3408137939322338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2560</v>
@@ -3050,19 +3050,19 @@
         <v>2721571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2634499</v>
+        <v>2629829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2804655</v>
+        <v>2800349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3914877819353003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3789627855503757</v>
+        <v>0.3782909777997836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4034390513165851</v>
+        <v>0.4028196634924675</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>604726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>570523</v>
+        <v>570481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>639393</v>
+        <v>637670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5361058016469674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5057842369952287</v>
+        <v>0.5057464817335567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5668393295922896</v>
+        <v>0.5653119559939154</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>739</v>
@@ -3415,19 +3415,19 @@
         <v>803570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>769683</v>
+        <v>771431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>839836</v>
+        <v>838111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6379761326095565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6110721110633867</v>
+        <v>0.6124605972428749</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6667690206301046</v>
+        <v>0.6653995470102577</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1317</v>
@@ -3436,19 +3436,19 @@
         <v>1408296</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1358486</v>
+        <v>1360598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1456881</v>
+        <v>1459827</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5898476887530285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5689854709874592</v>
+        <v>0.5698701213790399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6101971085020672</v>
+        <v>0.6114310609673594</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>523271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488604</v>
+        <v>490327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>557474</v>
+        <v>557516</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4638941983530325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4331606704077104</v>
+        <v>0.4346880440060849</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4942157630047714</v>
+        <v>0.4942535182664436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>449</v>
@@ -3486,19 +3486,19 @@
         <v>455991</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419725</v>
+        <v>421450</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>489878</v>
+        <v>488130</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3620238673904435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3332309793698955</v>
+        <v>0.3346004529897423</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3889278889366135</v>
+        <v>0.387539402757125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>937</v>
@@ -3507,19 +3507,19 @@
         <v>979262</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>930677</v>
+        <v>927731</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1029072</v>
+        <v>1026960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4101523112469715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3898028914979328</v>
+        <v>0.3885689390326406</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4310145290125407</v>
+        <v>0.4301298786209601</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>445726</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>415414</v>
+        <v>415144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>477030</v>
+        <v>479118</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4904420069055566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4570886289962814</v>
+        <v>0.456791772584299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5248869137966858</v>
+        <v>0.5271844760958369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>575</v>
@@ -3632,19 +3632,19 @@
         <v>622749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>593084</v>
+        <v>592759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>653472</v>
+        <v>654141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.618742919592188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5892681922744847</v>
+        <v>0.5889460495289567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.649268256369366</v>
+        <v>0.6499331009464899</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1015</v>
@@ -3653,19 +3653,19 @@
         <v>1068475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1022917</v>
+        <v>1025773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1111389</v>
+        <v>1112222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5578631388762724</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5340766713343814</v>
+        <v>0.5355676606413515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5802687318928998</v>
+        <v>0.5807036729641883</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>463099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>431795</v>
+        <v>429707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493411</v>
+        <v>493681</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5095579930944434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.475113086203314</v>
+        <v>0.4728155239041631</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5429113710037186</v>
+        <v>0.543208227415701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>376</v>
@@ -3703,19 +3703,19 @@
         <v>383726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353003</v>
+        <v>352334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>413391</v>
+        <v>413716</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.381257080407812</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.350731743630634</v>
+        <v>0.3500668990535101</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4107318077255154</v>
+        <v>0.4110539504710434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -3724,19 +3724,19 @@
         <v>846825</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>803911</v>
+        <v>803078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>892383</v>
+        <v>889527</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4421368611237277</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4197312681071002</v>
+        <v>0.4192963270358116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4659233286656186</v>
+        <v>0.4644323393586485</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>383934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>353130</v>
+        <v>353393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>412987</v>
+        <v>416904</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4660758859233806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4286811476858176</v>
+        <v>0.4290007597686907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5013447132526572</v>
+        <v>0.5060994852560102</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -3849,19 +3849,19 @@
         <v>460745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>433988</v>
+        <v>433521</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>489689</v>
+        <v>487616</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5975479244892991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5628461320716283</v>
+        <v>0.5622414382415507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6350866335632819</v>
+        <v>0.6323972388934606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>788</v>
@@ -3870,19 +3870,19 @@
         <v>844679</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>806968</v>
+        <v>804451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>885431</v>
+        <v>884365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5296396651977519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5059940456319215</v>
+        <v>0.5044158543676993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5551923635618278</v>
+        <v>0.5545240985756112</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>439825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410772</v>
+        <v>406855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470629</v>
+        <v>470366</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5339241140766193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4986552867473428</v>
+        <v>0.4939005147439901</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5713188523141826</v>
+        <v>0.5709992402313094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -3920,19 +3920,19 @@
         <v>310314</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>281370</v>
+        <v>283443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337071</v>
+        <v>337538</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4024520755107009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3649133664367181</v>
+        <v>0.3676027611065396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4371538679283717</v>
+        <v>0.4377585617584492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>727</v>
@@ -3941,19 +3941,19 @@
         <v>750139</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>709387</v>
+        <v>710453</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>787850</v>
+        <v>790367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4703603348022482</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4448076364381732</v>
+        <v>0.4454759014243887</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.494005954368079</v>
+        <v>0.4955841456323005</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>231680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>204741</v>
+        <v>207442</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>254123</v>
+        <v>256158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4572327667159124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4040661228395057</v>
+        <v>0.4093977586729931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5015239339160735</v>
+        <v>0.5055400362486628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -4066,19 +4066,19 @@
         <v>271886</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>250048</v>
+        <v>249337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>293061</v>
+        <v>292828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5552117200863461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5106166346118873</v>
+        <v>0.50916579943123</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5984528703687275</v>
+        <v>0.5979766408419664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>459</v>
@@ -4087,19 +4087,19 @@
         <v>503566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>471405</v>
+        <v>471625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>535456</v>
+        <v>536064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5053862473330487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4731086601860178</v>
+        <v>0.4733300061174042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5373920261064576</v>
+        <v>0.5380016467057482</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>275021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>252578</v>
+        <v>250543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301960</v>
+        <v>299259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5427672332840876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4984760660839265</v>
+        <v>0.4944599637513372</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5959338771604942</v>
+        <v>0.5906022413270069</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -4137,19 +4137,19 @@
         <v>217812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196637</v>
+        <v>196870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239650</v>
+        <v>240361</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4447882799136539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4015471296312725</v>
+        <v>0.4020233591580336</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4893833653881127</v>
+        <v>0.4908342005687705</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>467</v>
@@ -4158,19 +4158,19 @@
         <v>492832</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>460942</v>
+        <v>460334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>524993</v>
+        <v>524773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4946137526669513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4626079738935425</v>
+        <v>0.461998353294252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5268913398139823</v>
+        <v>0.5266699938825958</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1666066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1608551</v>
+        <v>1604251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1726335</v>
+        <v>1728345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4947807167430666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4777000392104628</v>
+        <v>0.4764231265389176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5126790737296446</v>
+        <v>0.5132758462851412</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1973</v>
@@ -4283,19 +4283,19 @@
         <v>2158949</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2098909</v>
+        <v>2102722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2215305</v>
+        <v>2217082</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.612156691482152</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5951326305110043</v>
+        <v>0.5962137833824008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6281358931303387</v>
+        <v>0.6286399230298484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3579</v>
@@ -4304,19 +4304,19 @@
         <v>3825016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3742172</v>
+        <v>3739229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3913627</v>
+        <v>3918473</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5548265842562368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.542809923507004</v>
+        <v>0.5423829866404941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5676798204484786</v>
+        <v>0.5683826690475769</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1701216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1640947</v>
+        <v>1638937</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1758731</v>
+        <v>1763031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5052192832569334</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4873209262703552</v>
+        <v>0.4867241537148591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.522299960789537</v>
+        <v>0.5235768734610825</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1349</v>
@@ -4354,19 +4354,19 @@
         <v>1367843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1311487</v>
+        <v>1309710</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1427883</v>
+        <v>1424070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.387843308517848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3718641068696616</v>
+        <v>0.3713600769701516</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4048673694889957</v>
+        <v>0.4037862166175991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2948</v>
@@ -4375,19 +4375,19 @@
         <v>3069059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2980448</v>
+        <v>2975602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3151903</v>
+        <v>3154846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4451734157437633</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4323201795515214</v>
+        <v>0.4316173309524231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4571900764929959</v>
+        <v>0.4576170133595058</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>200944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>176540</v>
+        <v>178250</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>223149</v>
+        <v>225393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4029037173842374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3539731463686336</v>
+        <v>0.3574013827444684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4474254092468071</v>
+        <v>0.4519261883961189</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>483</v>
@@ -4740,19 +4740,19 @@
         <v>317520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>296645</v>
+        <v>294545</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>341201</v>
+        <v>339183</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5091885753096806</v>
+        <v>0.5091885753096808</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.475713125693734</v>
+        <v>0.4723451238693763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5471649914788749</v>
+        <v>0.5439292571387253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>689</v>
@@ -4761,19 +4761,19 @@
         <v>518464</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>483594</v>
+        <v>487608</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>549225</v>
+        <v>551029</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4619574305663968</v>
+        <v>0.4619574305663969</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4308874561153738</v>
+        <v>0.4344641996200376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4893653735130467</v>
+        <v>0.4909731137660327</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>297795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275590</v>
+        <v>273346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>322199</v>
+        <v>320489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5970962826157625</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5525745907531927</v>
+        <v>0.5480738116038815</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6460268536313665</v>
+        <v>0.6425986172555316</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>378</v>
@@ -4811,19 +4811,19 @@
         <v>306060</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282379</v>
+        <v>284397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>326935</v>
+        <v>329035</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4908114246903191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4528350085211252</v>
+        <v>0.4560707428612747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5242868743062661</v>
+        <v>0.5276548761306238</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>627</v>
@@ -4832,19 +4832,19 @@
         <v>603856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>573095</v>
+        <v>571291</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>638726</v>
+        <v>634712</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5380425694336032</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5106346264869532</v>
+        <v>0.5090268862339673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5691125438846264</v>
+        <v>0.5655358003799622</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>350822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>322251</v>
+        <v>322007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>384904</v>
+        <v>386046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3653878971051047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3356302467696698</v>
+        <v>0.3353757161200953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4008842083159729</v>
+        <v>0.4020734036130171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>824</v>
@@ -4957,19 +4957,19 @@
         <v>503617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>474335</v>
+        <v>473686</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>534968</v>
+        <v>532472</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.451330350998311</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4250886051239278</v>
+        <v>0.4245071341754061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4794265970189668</v>
+        <v>0.4771897673779348</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1217</v>
@@ -4978,19 +4978,19 @@
         <v>854439</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>808226</v>
+        <v>809744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>894660</v>
+        <v>896891</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4115822493328016</v>
+        <v>0.4115822493328015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3893216727180948</v>
+        <v>0.390052521021319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4309566882902253</v>
+        <v>0.4320311987646232</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>609315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>575233</v>
+        <v>574091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>637886</v>
+        <v>638130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6346121028948954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.599115791684027</v>
+        <v>0.5979265963869829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6643697532303302</v>
+        <v>0.6646242838799046</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>783</v>
@@ -5028,19 +5028,19 @@
         <v>612232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>580881</v>
+        <v>583377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>641514</v>
+        <v>642163</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5486696490016889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5205734029810332</v>
+        <v>0.5228102326220655</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5749113948760723</v>
+        <v>0.575492865824594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1300</v>
@@ -5049,19 +5049,19 @@
         <v>1221547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1181326</v>
+        <v>1179095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1267760</v>
+        <v>1266242</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5884177506671985</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5690433117097747</v>
+        <v>0.5679688012353767</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6106783272819053</v>
+        <v>0.609947478978681</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>342368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312958</v>
+        <v>310196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>377411</v>
+        <v>376950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3271619864105826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2990577293665584</v>
+        <v>0.2964191050990004</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3606488368731016</v>
+        <v>0.360208091557969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>637</v>
@@ -5174,19 +5174,19 @@
         <v>395421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>366556</v>
+        <v>367881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>422595</v>
+        <v>421715</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3774390903712052</v>
+        <v>0.3774390903712053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3498863948972096</v>
+        <v>0.3511512467114208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.403376869155243</v>
+        <v>0.4025374861446789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1021</v>
@@ -5195,19 +5195,19 @@
         <v>737789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>693592</v>
+        <v>694069</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>780071</v>
+        <v>780105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3523144917297673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3312092645229633</v>
+        <v>0.3314369386218728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3725050607707212</v>
+        <v>0.3725213480146175</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>704111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669068</v>
+        <v>669529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>733521</v>
+        <v>736283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6728380135894174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6393511631268984</v>
+        <v>0.6397919084420308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7009422706334417</v>
+        <v>0.7035808949009996</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>879</v>
@@ -5245,19 +5245,19 @@
         <v>652221</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>625047</v>
+        <v>625927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681086</v>
+        <v>679761</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6225609096287947</v>
+        <v>0.6225609096287948</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5966231308447569</v>
+        <v>0.5974625138553213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6501136051027905</v>
+        <v>0.6488487532885793</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1524</v>
@@ -5266,19 +5266,19 @@
         <v>1356332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1314050</v>
+        <v>1314016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1400529</v>
+        <v>1400052</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6476855082702326</v>
+        <v>0.6476855082702329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6274949392292789</v>
+        <v>0.6274786519853823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6687907354770365</v>
+        <v>0.6685630613781273</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>249899</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221271</v>
+        <v>222036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279649</v>
+        <v>281160</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2560629777047954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2267286081190536</v>
+        <v>0.2275125142385767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2865465227237066</v>
+        <v>0.288094992032397</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>376</v>
@@ -5391,19 +5391,19 @@
         <v>248890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227069</v>
+        <v>226730</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>272855</v>
+        <v>273974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2734013128264154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2494314182943504</v>
+        <v>0.2490591141796996</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2997267779663199</v>
+        <v>0.3009557428784436</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>641</v>
@@ -5412,19 +5412,19 @@
         <v>498789</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>464117</v>
+        <v>462325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>537381</v>
+        <v>539464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2644307254378498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.246049421154853</v>
+        <v>0.245099818633919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2848900644578454</v>
+        <v>0.2859944001808287</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>726030</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>696280</v>
+        <v>694769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>754658</v>
+        <v>753893</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7439370222952046</v>
+        <v>0.7439370222952048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7134534772762936</v>
+        <v>0.711905007967603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7732713918809465</v>
+        <v>0.7724874857614235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>948</v>
@@ -5462,19 +5462,19 @@
         <v>661455</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>637490</v>
+        <v>636371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683276</v>
+        <v>683615</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7265986871735847</v>
+        <v>0.7265986871735846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7002732220336798</v>
+        <v>0.6990442571215565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7505685817056494</v>
+        <v>0.7509408858203005</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1630</v>
@@ -5483,19 +5483,19 @@
         <v>1387485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1348893</v>
+        <v>1346810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1422157</v>
+        <v>1423949</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7355692745621503</v>
+        <v>0.73556927456215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7151099355421546</v>
+        <v>0.7140055998191711</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.753950578845147</v>
+        <v>0.7549001813660812</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1144034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1082650</v>
+        <v>1085870</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1204454</v>
+        <v>1200336</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3286240581134882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3109916736704655</v>
+        <v>0.3119166235025341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3459798579362333</v>
+        <v>0.3447968633181522</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2320</v>
@@ -5608,19 +5608,19 @@
         <v>1465447</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1412528</v>
+        <v>1415885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1520218</v>
+        <v>1519193</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3963435438264002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3820310656151398</v>
+        <v>0.3829391796351673</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4111569164219214</v>
+        <v>0.4108797828001456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3568</v>
@@ -5629,19 +5629,19 @@
         <v>2609481</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2530954</v>
+        <v>2527425</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2689253</v>
+        <v>2681319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3635032284674468</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3525643068846903</v>
+        <v>0.3520727239419296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3746156133560982</v>
+        <v>0.373510348182005</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2337250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2276830</v>
+        <v>2280948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2398634</v>
+        <v>2395414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6713759418865117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6540201420637668</v>
+        <v>0.6552031366818477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6890083263295345</v>
+        <v>0.6880833764974659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2988</v>
@@ -5679,19 +5679,19 @@
         <v>2231969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2177198</v>
+        <v>2178223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2284888</v>
+        <v>2281531</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6036564561735998</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5888430835780786</v>
+        <v>0.5891202171998545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6179689343848607</v>
+        <v>0.6170608203648328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5081</v>
@@ -5700,19 +5700,19 @@
         <v>4569220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4489448</v>
+        <v>4497382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4647747</v>
+        <v>4651276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6364967715325531</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6253843866439016</v>
+        <v>0.6264896518179958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6474356931153099</v>
+        <v>0.6479272760580702</v>
       </c>
     </row>
     <row r="18">
